--- a/linguatec_lexicon/fixtures/sample-input.xlsx
+++ b/linguatec_lexicon/fixtures/sample-input.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">edad</t>
   </si>
   <si>
-    <t xml:space="preserve">n.</t>
+    <t xml:space="preserve">s. f.</t>
   </si>
   <si>
     <t xml:space="preserve">edá // tiempo</t>
@@ -170,9 +170,6 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s. f.</t>
   </si>
   <si>
     <t xml:space="preserve">terizia</t>
@@ -471,10 +468,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -483,13 +480,13 @@
     </row>
     <row r="4" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -498,13 +495,13 @@
     </row>
     <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -513,13 +510,13 @@
     </row>
     <row r="6" s="7" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -528,13 +525,13 @@
     </row>
     <row r="7" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -543,13 +540,13 @@
     </row>
     <row r="8" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -558,13 +555,13 @@
     </row>
     <row r="9" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -573,13 +570,13 @@
     </row>
     <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1202,8 +1199,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
